--- a/teaching/traditional_assets/database/data/canada/canada_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0612</v>
+        <v>0.0413</v>
       </c>
       <c r="E2">
-        <v>0.0804</v>
+        <v>0.0287</v>
       </c>
       <c r="F2">
-        <v>0.0377</v>
+        <v>-0.008920000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.008652265430267042</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.006946691651520895</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>34978.9</v>
+        <v>30922.2</v>
       </c>
       <c r="L2">
-        <v>0.289116942306214</v>
+        <v>0.2726647467449214</v>
       </c>
       <c r="M2">
-        <v>31471.362</v>
+        <v>29186.703</v>
       </c>
       <c r="N2">
-        <v>0.08120212649025385</v>
+        <v>0.07454159783751314</v>
       </c>
       <c r="O2">
-        <v>0.8997241765750209</v>
+        <v>0.9438753710926131</v>
       </c>
       <c r="P2">
-        <v>16146.362</v>
+        <v>16884.503</v>
       </c>
       <c r="Q2">
-        <v>0.04166069868477341</v>
+        <v>0.04312230238243368</v>
       </c>
       <c r="R2">
-        <v>0.4616029091823928</v>
+        <v>0.5460317506516355</v>
       </c>
       <c r="S2">
-        <v>15325</v>
+        <v>12302.2</v>
       </c>
       <c r="T2">
-        <v>0.4869506442078992</v>
+        <v>0.4215001605354329</v>
       </c>
       <c r="U2">
-        <v>67726.7</v>
+        <v>186859.7</v>
       </c>
       <c r="V2">
-        <v>0.1747478250279564</v>
+        <v>0.4772317246466088</v>
       </c>
       <c r="W2">
-        <v>0.1565772617332607</v>
+        <v>0.1086610554624137</v>
       </c>
       <c r="X2">
-        <v>0.07408491511314437</v>
+        <v>0.0756258827179912</v>
       </c>
       <c r="Y2">
-        <v>0.08249234662011633</v>
+        <v>0.03303517274442253</v>
       </c>
       <c r="Z2">
-        <v>0.1348380209956036</v>
+        <v>0.1093498534045842</v>
       </c>
       <c r="AA2">
-        <v>-0.0008024831672566608</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03752672971045515</v>
+        <v>0.03147083456959962</v>
       </c>
       <c r="AC2">
-        <v>-0.03857047312513534</v>
+        <v>-0.03147083456959962</v>
       </c>
       <c r="AD2">
-        <v>862375</v>
+        <v>1048750.8</v>
       </c>
       <c r="AE2">
-        <v>17548.48464380244</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>879923.4846438024</v>
+        <v>1048750.8</v>
       </c>
       <c r="AG2">
-        <v>812196.7846438024</v>
+        <v>861891.1000000001</v>
       </c>
       <c r="AH2">
-        <v>0.6942242661663562</v>
+        <v>0.7281474692772339</v>
       </c>
       <c r="AI2">
-        <v>0.7697687426462309</v>
+        <v>0.7905695880869865</v>
       </c>
       <c r="AJ2">
-        <v>0.6769632344995758</v>
+        <v>0.6876203836752337</v>
       </c>
       <c r="AK2">
-        <v>0.7552688591451129</v>
+        <v>0.7562328877400653</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>350.1461691501888</v>
-      </c>
-      <c r="AP2">
-        <v>329.772538326283</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Royal Bank of Canada (TSX:RY)</t>
+          <t>The Toronto-Dominion Bank (TSX:TD)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0609</v>
+        <v>0.0413</v>
       </c>
       <c r="E3">
-        <v>0.0762</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F3">
-        <v>0.0519</v>
+        <v>-0.0136</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +731,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.00611061817567604</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.004942184388838913</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9772.9</v>
+        <v>8939.200000000001</v>
       </c>
       <c r="L3">
-        <v>0.2913578553838999</v>
+        <v>0.3267502257117688</v>
       </c>
       <c r="M3">
-        <v>9385.400000000001</v>
+        <v>11462.438</v>
       </c>
       <c r="N3">
-        <v>0.08301850742888887</v>
+        <v>0.1118475410971803</v>
       </c>
       <c r="O3">
-        <v>0.9603495380081656</v>
+        <v>1.282266645784858</v>
       </c>
       <c r="P3">
-        <v>4374.3</v>
+        <v>4248.738</v>
       </c>
       <c r="Q3">
-        <v>0.03869284815204344</v>
+        <v>0.0414580997573249</v>
       </c>
       <c r="R3">
-        <v>0.447594879718405</v>
+        <v>0.4752928673706819</v>
       </c>
       <c r="S3">
-        <v>5011.100000000001</v>
+        <v>7213.7</v>
       </c>
       <c r="T3">
-        <v>0.5339250324972831</v>
+        <v>0.6293338293302001</v>
       </c>
       <c r="U3">
-        <v>18018.4</v>
+        <v>3420.1</v>
       </c>
       <c r="V3">
-        <v>0.1593816645275312</v>
+        <v>0.0333724618886895</v>
       </c>
       <c r="W3">
-        <v>0.1746851416907078</v>
+        <v>0.1436131416178006</v>
       </c>
       <c r="X3">
-        <v>0.07610300615378185</v>
+        <v>0.0756258827179912</v>
       </c>
       <c r="Y3">
-        <v>0.09858213553692594</v>
+        <v>0.06798725889980944</v>
       </c>
       <c r="Z3">
-        <v>0.1225632529807122</v>
+        <v>0.1063118159731775</v>
       </c>
       <c r="AA3">
-        <v>-0.0006057301955265902</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03717960823971238</v>
+        <v>0.03085305636826789</v>
       </c>
       <c r="AC3">
-        <v>-0.03778533843523897</v>
+        <v>-0.03085305636826789</v>
       </c>
       <c r="AD3">
-        <v>260989.6</v>
+        <v>269352.8</v>
       </c>
       <c r="AE3">
-        <v>4098.830106097155</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>265088.4301060971</v>
+        <v>269352.8</v>
       </c>
       <c r="AG3">
-        <v>247070.0301060971</v>
+        <v>265932.7</v>
       </c>
       <c r="AH3">
-        <v>0.7010318894885389</v>
+        <v>0.7243869937109286</v>
       </c>
       <c r="AI3">
-        <v>0.8066249161595827</v>
+        <v>0.789610956115559</v>
       </c>
       <c r="AJ3">
-        <v>0.6860732697764524</v>
+        <v>0.7218284034815048</v>
       </c>
       <c r="AK3">
-        <v>0.7954076650404922</v>
+        <v>0.7874802191762649</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>424.5113858165257</v>
-      </c>
-      <c r="AP3">
-        <v>401.870575969579</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Bank of Nova Scotia (TSX:BNS)</t>
+          <t>Royal Bank of Canada (TSX:RY)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +841,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0504</v>
+        <v>0.046</v>
       </c>
       <c r="E4">
-        <v>0.0348</v>
+        <v>0.0287</v>
       </c>
       <c r="F4">
-        <v>0.0377</v>
+        <v>0.0737</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,103 +856,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.001452506141721173</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.00113390655296777</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6376</v>
+        <v>8591.200000000001</v>
       </c>
       <c r="L4">
-        <v>0.2995691579080901</v>
+        <v>0.2669152142169199</v>
       </c>
       <c r="M4">
-        <v>4054.3</v>
+        <v>8816.700000000001</v>
       </c>
       <c r="N4">
-        <v>0.05932959880120348</v>
+        <v>0.07552812376856786</v>
       </c>
       <c r="O4">
-        <v>0.6358688833124216</v>
+        <v>1.026247788434677</v>
       </c>
       <c r="P4">
-        <v>3237.4</v>
+        <v>4557.9</v>
       </c>
       <c r="Q4">
-        <v>0.04737529121155715</v>
+        <v>0.03904517963917967</v>
       </c>
       <c r="R4">
-        <v>0.5077478042659975</v>
+        <v>0.5305312412701368</v>
       </c>
       <c r="S4">
-        <v>816.9000000000001</v>
+        <v>4258.800000000001</v>
       </c>
       <c r="T4">
-        <v>0.2014897762869053</v>
+        <v>0.4830378713123959</v>
       </c>
       <c r="U4">
-        <v>1142.2</v>
+        <v>87466.39999999999</v>
       </c>
       <c r="V4">
-        <v>0.01671466535548297</v>
+        <v>0.7492795586547192</v>
       </c>
       <c r="W4">
-        <v>0.133897539821708</v>
+        <v>0.1452784339853322</v>
       </c>
       <c r="X4">
-        <v>0.06980375567772512</v>
+        <v>0.07556993866124739</v>
       </c>
       <c r="Y4">
-        <v>0.06409378414398284</v>
+        <v>0.06970849532408477</v>
       </c>
       <c r="Z4">
-        <v>0.1382246677907114</v>
+        <v>0.1080308394869215</v>
       </c>
       <c r="AA4">
-        <v>-0.0001567338565896807</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03781363201836133</v>
+        <v>0.03085343422783496</v>
       </c>
       <c r="AC4">
-        <v>-0.03797036587495101</v>
+        <v>-0.03085343422783496</v>
       </c>
       <c r="AD4">
-        <v>130374.4</v>
+        <v>306416.4</v>
       </c>
       <c r="AE4">
-        <v>1830.074977348896</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>132204.4749773489</v>
+        <v>306416.4</v>
       </c>
       <c r="AG4">
-        <v>131062.2749773489</v>
+        <v>218950</v>
       </c>
       <c r="AH4">
-        <v>0.6592434888122837</v>
+        <v>0.7241311836169835</v>
       </c>
       <c r="AI4">
-        <v>0.7125129229192374</v>
+        <v>0.8245369493335171</v>
       </c>
       <c r="AJ4">
-        <v>0.6572915479107109</v>
+        <v>0.6522503306681284</v>
       </c>
       <c r="AK4">
-        <v>0.7107322309842246</v>
+        <v>0.7705274567491097</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>389.0611757684273</v>
-      </c>
-      <c r="AP4">
-        <v>391.1139211499519</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Toronto-Dominion Bank (TSX:TD)</t>
+          <t>Canadian Imperial Bank of Commerce (TSX:CM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +966,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0601</v>
+        <v>0.0443</v>
       </c>
       <c r="E5">
-        <v>0.08460000000000001</v>
+        <v>0.0117</v>
       </c>
       <c r="F5">
-        <v>0.0432</v>
+        <v>0.0616</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +981,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.009131596460740065</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.00739971610052689</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8867.1</v>
+        <v>2848.2</v>
       </c>
       <c r="L5">
-        <v>0.306762750212763</v>
+        <v>0.2332009661440209</v>
       </c>
       <c r="M5">
-        <v>13118.92</v>
+        <v>2128.853</v>
       </c>
       <c r="N5">
-        <v>0.1292671270873384</v>
+        <v>0.05582617429248747</v>
       </c>
       <c r="O5">
-        <v>1.47950513696699</v>
+        <v>0.7474380310371463</v>
       </c>
       <c r="P5">
-        <v>3986.62</v>
+        <v>1952.953</v>
       </c>
       <c r="Q5">
-        <v>0.03928211424331614</v>
+        <v>0.05121344431157824</v>
       </c>
       <c r="R5">
-        <v>0.4495968242153579</v>
+        <v>0.6856797275472228</v>
       </c>
       <c r="S5">
-        <v>9132.299999999999</v>
+        <v>175.9000000000001</v>
       </c>
       <c r="T5">
-        <v>0.6961167535132464</v>
+        <v>0.08262665388357021</v>
       </c>
       <c r="U5">
-        <v>3072.5</v>
+        <v>32365.9</v>
       </c>
       <c r="V5">
-        <v>0.03027484335416689</v>
+        <v>0.84875018356515</v>
       </c>
       <c r="W5">
-        <v>0.1574198840002344</v>
+        <v>0.1053694701560454</v>
       </c>
       <c r="X5">
-        <v>0.07206682407250689</v>
+        <v>0.0869684819006145</v>
       </c>
       <c r="Y5">
-        <v>0.08535305992772746</v>
+        <v>0.01840098825543086</v>
       </c>
       <c r="Z5">
-        <v>0.1350370913440289</v>
+        <v>0.09575715856008707</v>
       </c>
       <c r="AA5">
-        <v>-0.0009992361389867313</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03728558745747141</v>
+        <v>0.03145686969503046</v>
       </c>
       <c r="AC5">
-        <v>-0.03828482359645814</v>
+        <v>-0.03145686969503046</v>
       </c>
       <c r="AD5">
-        <v>206223.2</v>
+        <v>126238.1</v>
       </c>
       <c r="AE5">
-        <v>5073.762241681379</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>211296.9622416814</v>
+        <v>126238.1</v>
       </c>
       <c r="AG5">
-        <v>208224.4622416814</v>
+        <v>93872.20000000001</v>
       </c>
       <c r="AH5">
-        <v>0.6755366492610695</v>
+        <v>0.768003859545165</v>
       </c>
       <c r="AI5">
-        <v>0.7602109730478149</v>
+        <v>0.802522669826626</v>
       </c>
       <c r="AJ5">
-        <v>0.6723178017576078</v>
+        <v>0.7111217840428223</v>
       </c>
       <c r="AK5">
-        <v>0.7575306345255984</v>
+        <v>0.7513641016939113</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>274.671283963772</v>
-      </c>
-      <c r="AP5">
-        <v>277.3367904124685</v>
       </c>
     </row>
     <row r="6">
@@ -1115,13 +1091,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.06860000000000001</v>
+        <v>0.0344</v>
       </c>
       <c r="E6">
-        <v>0.0613</v>
+        <v>0.0313</v>
       </c>
       <c r="F6">
-        <v>0.03240000000000001</v>
+        <v>-0.008920000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1130,103 +1106,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.01070048242669398</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.008472594856320658</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4375.8</v>
+        <v>3830.4</v>
       </c>
       <c r="L6">
-        <v>0.2339612149857511</v>
+        <v>0.2292513301772173</v>
       </c>
       <c r="M6">
-        <v>2043.528</v>
+        <v>2107.632</v>
       </c>
       <c r="N6">
-        <v>0.04143843227590906</v>
+        <v>0.0431685691053247</v>
       </c>
       <c r="O6">
-        <v>0.4670067187714247</v>
+        <v>0.5502380952380951</v>
       </c>
       <c r="P6">
-        <v>1975.128</v>
+        <v>2050.532</v>
       </c>
       <c r="Q6">
-        <v>0.0400514247244235</v>
+        <v>0.04199904553768384</v>
       </c>
       <c r="R6">
-        <v>0.4513752913752914</v>
+        <v>0.5353310359231411</v>
       </c>
       <c r="S6">
-        <v>68.40000000000009</v>
+        <v>57.09999999999991</v>
       </c>
       <c r="T6">
-        <v>0.03347152571435286</v>
+        <v>0.02709201606352528</v>
       </c>
       <c r="U6">
-        <v>35646.9</v>
+        <v>43059.1</v>
       </c>
       <c r="V6">
-        <v>0.7228438521498617</v>
+        <v>0.881937517537733</v>
       </c>
       <c r="W6">
-        <v>0.1390219725755824</v>
+        <v>0.1086610554624137</v>
       </c>
       <c r="X6">
-        <v>0.08332713178477671</v>
+        <v>0.08050218772438414</v>
       </c>
       <c r="Y6">
-        <v>0.05569484079080567</v>
+        <v>0.02815886773802959</v>
       </c>
       <c r="Z6">
-        <v>0.1551485076803941</v>
+        <v>0.1240779535376954</v>
       </c>
       <c r="AA6">
-        <v>-0.001314510448138733</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03754161220567381</v>
+        <v>0.03147083456959962</v>
       </c>
       <c r="AC6">
-        <v>-0.03885612265381255</v>
+        <v>-0.03147083456959962</v>
       </c>
       <c r="AD6">
-        <v>136355.1</v>
+        <v>142639</v>
       </c>
       <c r="AE6">
-        <v>2478.660964373501</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>138833.7609643735</v>
+        <v>142639</v>
       </c>
       <c r="AG6">
-        <v>103186.8609643735</v>
+        <v>99579.89999999999</v>
       </c>
       <c r="AH6">
-        <v>0.7378943546140758</v>
+        <v>0.7449978403058984</v>
       </c>
       <c r="AI6">
-        <v>0.7815066204799131</v>
+        <v>0.7703179257867138</v>
       </c>
       <c r="AJ6">
-        <v>0.6766277843260959</v>
+        <v>0.6710091157063998</v>
       </c>
       <c r="AK6">
-        <v>0.7266580000980535</v>
+        <v>0.7007245800609246</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>461.2824763193505</v>
-      </c>
-      <c r="AP6">
-        <v>349.0759843179077</v>
       </c>
     </row>
     <row r="7">
@@ -1237,7 +1207,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>National Bank of Canada (TSX:NA)</t>
+          <t>The Bank of Nova Scotia (TSX:BNS)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1246,10 +1216,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06150000000000001</v>
+        <v>0.027</v>
       </c>
       <c r="E7">
-        <v>0.08960000000000001</v>
+        <v>-0.006820000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.095</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1258,103 +1231,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.002465814496270552</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.002056613064290314</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1714.4</v>
+        <v>5093.7</v>
       </c>
       <c r="L7">
-        <v>0.3184131347275361</v>
+        <v>0.2684143963745587</v>
       </c>
       <c r="M7">
-        <v>888.5839999999999</v>
+        <v>3589.9</v>
       </c>
       <c r="N7">
-        <v>0.04809187738136474</v>
+        <v>0.0548706300974554</v>
       </c>
       <c r="O7">
-        <v>0.5183061129258049</v>
+        <v>0.7047725621846596</v>
       </c>
       <c r="P7">
-        <v>675.0839999999999</v>
+        <v>3278.8</v>
       </c>
       <c r="Q7">
-        <v>0.03653684620713543</v>
+        <v>0.05011555251219721</v>
       </c>
       <c r="R7">
-        <v>0.3937727484834344</v>
+        <v>0.6436971160453109</v>
       </c>
       <c r="S7">
-        <v>213.5</v>
+        <v>311.0999999999999</v>
       </c>
       <c r="T7">
-        <v>0.240269912580015</v>
+        <v>0.08665979553748013</v>
       </c>
       <c r="U7">
-        <v>7292.5</v>
+        <v>3007.5</v>
       </c>
       <c r="V7">
-        <v>0.3946841444405958</v>
+        <v>0.04596880693559629</v>
       </c>
       <c r="W7">
-        <v>0.195551499942968</v>
+        <v>0.1028052095884522</v>
       </c>
       <c r="X7">
-        <v>0.05989961477704495</v>
+        <v>0.07199237170660072</v>
       </c>
       <c r="Y7">
-        <v>0.135651885165923</v>
+        <v>0.03081283788185148</v>
       </c>
       <c r="Z7">
-        <v>0.2305918373569869</v>
+        <v>0.1039697749668263</v>
       </c>
       <c r="AA7">
-        <v>-0.0004742381852270863</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0385653786969568</v>
+        <v>0.03149406715291087</v>
       </c>
       <c r="AC7">
-        <v>-0.03903961688218389</v>
+        <v>-0.03149406715291087</v>
       </c>
       <c r="AD7">
-        <v>23368.4</v>
+        <v>157657.9</v>
       </c>
       <c r="AE7">
-        <v>461.3821920540995</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>23829.7821920541</v>
+        <v>157657.9</v>
       </c>
       <c r="AG7">
-        <v>16537.2821920541</v>
+        <v>154650.4</v>
       </c>
       <c r="AH7">
-        <v>0.5632641768100506</v>
+        <v>0.7067240086299833</v>
       </c>
       <c r="AI7">
-        <v>0.6744459533615365</v>
+        <v>0.7484658761288142</v>
       </c>
       <c r="AJ7">
-        <v>0.4723037462854582</v>
+        <v>0.7027161624753719</v>
       </c>
       <c r="AK7">
-        <v>0.5897771637835345</v>
+        <v>0.7448224976749943</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>295.8025316455696</v>
-      </c>
-      <c r="AP7">
-        <v>209.3326859753684</v>
       </c>
     </row>
     <row r="8">
@@ -1365,7 +1332,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Canadian Imperial Bank of Commerce (TSX:CM)</t>
+          <t>National Bank of Canada (TSX:NA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1374,13 +1341,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0687</v>
+        <v>0.0512</v>
       </c>
       <c r="E8">
-        <v>0.09630000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.007860000000000001</v>
+        <v>0.0567</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1389,91 +1353,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.02533436875380566</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.02005528017721069</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3872.7</v>
+        <v>1533.8</v>
       </c>
       <c r="L8">
-        <v>0.2941417731902385</v>
+        <v>0.2882324200398392</v>
       </c>
       <c r="M8">
-        <v>1980.63</v>
+        <v>1001.28</v>
       </c>
       <c r="N8">
-        <v>0.05367182800127904</v>
+        <v>0.0529999311881686</v>
       </c>
       <c r="O8">
-        <v>0.5114338833372066</v>
+        <v>0.6528100143434606</v>
       </c>
       <c r="P8">
-        <v>1897.83</v>
+        <v>715.6799999999999</v>
       </c>
       <c r="Q8">
-        <v>0.05142808365806203</v>
+        <v>0.03788250115127487</v>
       </c>
       <c r="R8">
-        <v>0.4900534510806414</v>
+        <v>0.4666058156213326</v>
       </c>
       <c r="S8">
-        <v>82.79999999999995</v>
+        <v>285.6</v>
       </c>
       <c r="T8">
-        <v>0.04180488026537009</v>
+        <v>0.2852348993288591</v>
       </c>
       <c r="U8">
-        <v>2554.2</v>
+        <v>17488.3</v>
       </c>
       <c r="V8">
-        <v>0.06921463528315078</v>
+        <v>0.9256938085231393</v>
       </c>
       <c r="W8">
-        <v>0.155734639466287</v>
+        <v>0.1637170975385863</v>
       </c>
       <c r="X8">
-        <v>0.08531623534235504</v>
+        <v>0.06404988610718834</v>
       </c>
       <c r="Y8">
-        <v>0.07041840412393201</v>
+        <v>0.09966721143139798</v>
       </c>
       <c r="Z8">
-        <v>0.1179195155608949</v>
+        <v>0.2028482773868427</v>
       </c>
       <c r="AA8">
-        <v>-0.002364908922934704</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0375118472152365</v>
+        <v>0.03206121084487051</v>
       </c>
       <c r="AC8">
-        <v>-0.0398767561381712</v>
+        <v>-0.03206121084487051</v>
       </c>
       <c r="AD8">
-        <v>105064.3</v>
+        <v>36501.4</v>
       </c>
       <c r="AE8">
-        <v>3605.774162247404</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>108670.0741622474</v>
+        <v>36501.4</v>
       </c>
       <c r="AG8">
-        <v>106115.8741622474</v>
+        <v>19013.1</v>
       </c>
       <c r="AH8">
-        <v>0.7465005007816896</v>
+        <v>0.6589473494182531</v>
       </c>
       <c r="AI8">
-        <v>0.7875277975996315</v>
+        <v>0.7477757086695634</v>
       </c>
       <c r="AJ8">
-        <v>0.7419731946088599</v>
+        <v>0.5015960870804007</v>
       </c>
       <c r="AK8">
-        <v>0.7835207255353471</v>
+        <v>0.6069624900239426</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1481,11 +1445,127 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8">
-        <v>271.0637254901961</v>
-      </c>
-      <c r="AP8">
-        <v>273.7767651244773</v>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laurentian Bank of Canada (TSX:LB)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>-0.00175</v>
+      </c>
+      <c r="E9">
+        <v>0.0217</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>85.7</v>
+      </c>
+      <c r="L9">
+        <v>0.1334267476257201</v>
+      </c>
+      <c r="M9">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.07546991593463682</v>
+      </c>
+      <c r="O9">
+        <v>0.9323220536756126</v>
+      </c>
+      <c r="P9">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.07546991593463682</v>
+      </c>
+      <c r="R9">
+        <v>0.9323220536756126</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>52.4</v>
+      </c>
+      <c r="V9">
+        <v>0.04949466326626995</v>
+      </c>
+      <c r="W9">
+        <v>0.04853324272284517</v>
+      </c>
+      <c r="X9">
+        <v>0.188122399749355</v>
+      </c>
+      <c r="Y9">
+        <v>-0.1395891570265098</v>
+      </c>
+      <c r="Z9">
+        <v>0.05912676860196445</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.03563270154781673</v>
+      </c>
+      <c r="AC9">
+        <v>-0.03563270154781673</v>
+      </c>
+      <c r="AD9">
+        <v>9945.200000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>9945.200000000001</v>
+      </c>
+      <c r="AG9">
+        <v>9892.800000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.9037886567489708</v>
+      </c>
+      <c r="AI9">
+        <v>0.8351976888709732</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9033283111902478</v>
+      </c>
+      <c r="AK9">
+        <v>0.8344692624333626</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
